--- a/biology/Botanique/Maximiliansanlagen/Maximiliansanlagen.xlsx
+++ b/biology/Botanique/Maximiliansanlagen/Maximiliansanlagen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Maximiliansanlagen sont des parcs et des jardins longeant l'Isar, dans les quartiers munichois de Bogenhausen et Haidhausen, entre le pont Ludwig et le pont Max-Joseph. Le point central est l'Ange de la paix, haut de 38 mètres. 
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Maximiliansanlagen ont été créés entre 1856 et 1866 sous la direction de Carl von Effner, sur commande du roi Maximilien II de Bavière. La zone était autrefois utilisée comme pâturage pour les moutons, les pentes étaient partiellement fortement érodées. 
 Le parc allongé d'environ 30 hectares possède de nombreuses terrasses et est situé sur la rive droite de l'Isar. Ainsi, à cette époque, le plateau oriental était relié à la ville. 
